--- a/excel/files_08_data_analysis/file03_menu_sorted.xlsx
+++ b/excel/files_08_data_analysis/file03_menu_sorted.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis/data_analysis/excel/files_08_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{197F5D2B-B5C1-4ED7-B7AD-CEBB464B90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D71F62-5A97-47E4-9178-2CE7D7A0CBAC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{197F5D2B-B5C1-4ED7-B7AD-CEBB464B90C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C282E64-2233-4768-A882-B47C47E01309}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50F61F0E-0366-4A0C-BD0F-19332FD87CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="1" r:id="rId2"/>
-    <sheet name="Analysis_transposed" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">menu!$A$1:$X$261</definedName>
@@ -48,30 +46,8 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="400">
   <si>
     <t>Category</t>
   </si>
@@ -1271,40 +1247,14 @@
   </si>
   <si>
     <t>McFlurry with Reese's Peanut Butter Cups (Snack)</t>
-  </si>
-  <si>
-    <t>Total Percentage</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>IQR</t>
-  </si>
-  <si>
-    <t>Calculation/Column</t>
-  </si>
-  <si>
-    <t>Mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1320,7 +1270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1328,50 +1278,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1396,8 +1314,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{E50F08E6-9D5E-4482-945C-643C50C4C0FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="26" unboundColumnsRight="1">
-    <queryTableFields count="25">
+  <queryTableRefresh nextId="26">
+    <queryTableFields count="24">
       <queryTableField id="1" name="Category" tableColumnId="1"/>
       <queryTableField id="2" name="Item" tableColumnId="2"/>
       <queryTableField id="3" name="Serving Size" tableColumnId="3"/>
@@ -1422,22 +1340,21 @@
       <queryTableField id="22" name="Vitamin C (% Daily Value)" tableColumnId="22"/>
       <queryTableField id="23" name="Calcium (% Daily Value)" tableColumnId="23"/>
       <queryTableField id="24" name="Iron (% Daily Value)" tableColumnId="24"/>
-      <queryTableField id="25" dataBound="0" tableColumnId="26"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79904FBE-465D-4EBF-BC49-122FBB4C41DD}" name="menu" displayName="menu" ref="A1:Y261" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:Y261" xr:uid="{79904FBE-465D-4EBF-BC49-122FBB4C41DD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y261">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79904FBE-465D-4EBF-BC49-122FBB4C41DD}" name="menu" displayName="menu" ref="A1:X261" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:X261" xr:uid="{79904FBE-465D-4EBF-BC49-122FBB4C41DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X261">
     <sortCondition ref="A1:A261"/>
   </sortState>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{D0FFC862-C613-4229-AB29-7A6A6D9D0316}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B24B67FE-0939-4DE1-B3E7-2B4368E04F3D}" uniqueName="2" name="Item" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{7E29B664-6235-49AD-8D3D-6CE3E54079E8}" uniqueName="3" name="Serving Size" queryTableFieldId="3" dataDxfId="1"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{D0FFC862-C613-4229-AB29-7A6A6D9D0316}" uniqueName="1" name="Category" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B24B67FE-0939-4DE1-B3E7-2B4368E04F3D}" uniqueName="2" name="Item" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{7E29B664-6235-49AD-8D3D-6CE3E54079E8}" uniqueName="3" name="Serving Size" queryTableFieldId="3" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{2912953A-D13D-4777-B985-F4B057E8625D}" uniqueName="4" name="Calories" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{0A3522E9-126C-4B26-B72C-090D1ED2FB91}" uniqueName="5" name="Calories from Fat" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{FB454ADD-72CE-480B-926C-49BA49DDDD0E}" uniqueName="6" name="Total Fat" queryTableFieldId="6"/>
@@ -1459,9 +1376,6 @@
     <tableColumn id="22" xr3:uid="{C095E4A3-4387-4150-91B2-4C6879E03163}" uniqueName="22" name="Vitamin C (% Daily Value)" queryTableFieldId="22"/>
     <tableColumn id="23" xr3:uid="{15905424-EFC9-4D01-8C06-4322D76F997A}" uniqueName="23" name="Calcium (% Daily Value)" queryTableFieldId="23"/>
     <tableColumn id="24" xr3:uid="{79F0ED39-6971-49FE-99DD-4BB00B1C5183}" uniqueName="24" name="Iron (% Daily Value)" queryTableFieldId="24"/>
-    <tableColumn id="26" xr3:uid="{7E5685A5-DE1F-4EF5-99F6-56DD3343899F}" uniqueName="26" name="Total Percentage" queryTableFieldId="25" dataDxfId="0">
-      <calculatedColumnFormula>SUM(X2,W2,V2,U2,R2,P2,N2,L2,I2,G2)</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1764,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB51FEE8-A16C-4E78-88FA-FA5B187180BE}">
-  <dimension ref="A1:Y261"/>
+  <dimension ref="A1:X261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E261"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1799,7 +1713,7 @@
     <col min="25" max="25" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1872,11 +1786,8 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -1949,12 +1860,8 @@
       <c r="X2">
         <v>25</v>
       </c>
-      <c r="Y2">
-        <f>SUM(X2,W2,V2,U2,R2,P2,N2,L2,I2,G2)</f>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -2027,12 +1934,8 @@
       <c r="X3">
         <v>30</v>
       </c>
-      <c r="Y3">
-        <f>SUM(X3,W3,V3,U3,R3,P3,N3,L3,I3,G3)</f>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -2105,12 +2008,8 @@
       <c r="X4">
         <v>25</v>
       </c>
-      <c r="Y4">
-        <f>SUM(X4,W4,V4,U4,R4,P4,N4,L4,I4,G4)</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -2183,12 +2082,8 @@
       <c r="X5">
         <v>30</v>
       </c>
-      <c r="Y5">
-        <f>SUM(X5,W5,V5,U5,R5,P5,N5,L5,I5,G5)</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -2261,12 +2156,8 @@
       <c r="X6">
         <v>30</v>
       </c>
-      <c r="Y6">
-        <f>SUM(X6,W6,V6,U6,R6,P6,N6,L6,I6,G6)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -2339,12 +2230,8 @@
       <c r="X7">
         <v>20</v>
       </c>
-      <c r="Y7">
-        <f>SUM(X7,W7,V7,U7,R7,P7,N7,L7,I7,G7)</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -2417,12 +2304,8 @@
       <c r="X8">
         <v>35</v>
       </c>
-      <c r="Y8">
-        <f>SUM(X8,W8,V8,U8,R8,P8,N8,L8,I8,G8)</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
@@ -2495,12 +2378,8 @@
       <c r="X9">
         <v>25</v>
       </c>
-      <c r="Y9">
-        <f>SUM(X9,W9,V9,U9,R9,P9,N9,L9,I9,G9)</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>103</v>
       </c>
@@ -2573,12 +2452,8 @@
       <c r="X10">
         <v>20</v>
       </c>
-      <c r="Y10">
-        <f>SUM(X10,W10,V10,U10,R10,P10,N10,L10,I10,G10)</f>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -2651,12 +2526,8 @@
       <c r="X11">
         <v>20</v>
       </c>
-      <c r="Y11">
-        <f>SUM(X11,W11,V11,U11,R11,P11,N11,L11,I11,G11)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>103</v>
       </c>
@@ -2729,12 +2600,8 @@
       <c r="X12">
         <v>20</v>
       </c>
-      <c r="Y12">
-        <f>SUM(X12,W12,V12,U12,R12,P12,N12,L12,I12,G12)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>103</v>
       </c>
@@ -2807,12 +2674,8 @@
       <c r="X13">
         <v>20</v>
       </c>
-      <c r="Y13">
-        <f>SUM(X13,W13,V13,U13,R13,P13,N13,L13,I13,G13)</f>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>103</v>
       </c>
@@ -2885,12 +2748,8 @@
       <c r="X14">
         <v>20</v>
       </c>
-      <c r="Y14">
-        <f>SUM(X14,W14,V14,U14,R14,P14,N14,L14,I14,G14)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>103</v>
       </c>
@@ -2963,12 +2822,8 @@
       <c r="X15">
         <v>15</v>
       </c>
-      <c r="Y15">
-        <f>SUM(X15,W15,V15,U15,R15,P15,N15,L15,I15,G15)</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -3041,12 +2896,8 @@
       <c r="X16">
         <v>15</v>
       </c>
-      <c r="Y16">
-        <f>SUM(X16,W16,V16,U16,R16,P16,N16,L16,I16,G16)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>232</v>
       </c>
@@ -3119,12 +2970,8 @@
       <c r="X17">
         <v>0</v>
       </c>
-      <c r="Y17">
-        <f>SUM(X17,W17,V17,U17,R17,P17,N17,L17,I17,G17)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>232</v>
       </c>
@@ -3197,12 +3044,8 @@
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18">
-        <f>SUM(X18,W18,V18,U18,R18,P18,N18,L18,I18,G18)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>232</v>
       </c>
@@ -3275,12 +3118,8 @@
       <c r="X19">
         <v>0</v>
       </c>
-      <c r="Y19">
-        <f>SUM(X19,W19,V19,U19,R19,P19,N19,L19,I19,G19)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>232</v>
       </c>
@@ -3353,12 +3192,8 @@
       <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20">
-        <f>SUM(X20,W20,V20,U20,R20,P20,N20,L20,I20,G20)</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>232</v>
       </c>
@@ -3431,12 +3266,8 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21">
-        <f>SUM(X21,W21,V21,U21,R21,P21,N21,L21,I21,G21)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>232</v>
       </c>
@@ -3509,12 +3340,8 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22">
-        <f>SUM(X22,W22,V22,U22,R22,P22,N22,L22,I22,G22)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>232</v>
       </c>
@@ -3587,12 +3414,8 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23">
-        <f>SUM(X23,W23,V23,U23,R23,P23,N23,L23,I23,G23)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>232</v>
       </c>
@@ -3665,12 +3488,8 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24">
-        <f>SUM(X24,W24,V24,U24,R24,P24,N24,L24,I24,G24)</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>232</v>
       </c>
@@ -3743,12 +3562,8 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25">
-        <f>SUM(X25,W25,V25,U25,R25,P25,N25,L25,I25,G25)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>232</v>
       </c>
@@ -3821,12 +3636,8 @@
       <c r="X26">
         <v>0</v>
       </c>
-      <c r="Y26">
-        <f>SUM(X26,W26,V26,U26,R26,P26,N26,L26,I26,G26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>232</v>
       </c>
@@ -3899,12 +3710,8 @@
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27">
-        <f>SUM(X27,W27,V27,U27,R27,P27,N27,L27,I27,G27)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>232</v>
       </c>
@@ -3977,12 +3784,8 @@
       <c r="X28">
         <v>0</v>
       </c>
-      <c r="Y28">
-        <f>SUM(X28,W28,V28,U28,R28,P28,N28,L28,I28,G28)</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>232</v>
       </c>
@@ -4055,12 +3858,8 @@
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29">
-        <f>SUM(X29,W29,V29,U29,R29,P29,N29,L29,I29,G29)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>232</v>
       </c>
@@ -4133,12 +3932,8 @@
       <c r="X30">
         <v>0</v>
       </c>
-      <c r="Y30">
-        <f>SUM(X30,W30,V30,U30,R30,P30,N30,L30,I30,G30)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>232</v>
       </c>
@@ -4211,12 +4006,8 @@
       <c r="X31">
         <v>0</v>
       </c>
-      <c r="Y31">
-        <f>SUM(X31,W31,V31,U31,R31,P31,N31,L31,I31,G31)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>232</v>
       </c>
@@ -4289,12 +4080,8 @@
       <c r="X32">
         <v>8</v>
       </c>
-      <c r="Y32">
-        <f>SUM(X32,W32,V32,U32,R32,P32,N32,L32,I32,G32)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>232</v>
       </c>
@@ -4367,12 +4154,8 @@
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33">
-        <f>SUM(X33,W33,V33,U33,R33,P33,N33,L33,I33,G33)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>232</v>
       </c>
@@ -4445,12 +4228,8 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34">
-        <f>SUM(X34,W34,V34,U34,R34,P34,N34,L34,I34,G34)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>232</v>
       </c>
@@ -4523,12 +4302,8 @@
       <c r="X35">
         <v>0</v>
       </c>
-      <c r="Y35">
-        <f>SUM(X35,W35,V35,U35,R35,P35,N35,L35,I35,G35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>232</v>
       </c>
@@ -4601,12 +4376,8 @@
       <c r="X36">
         <v>0</v>
       </c>
-      <c r="Y36">
-        <f>SUM(X36,W36,V36,U36,R36,P36,N36,L36,I36,G36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>232</v>
       </c>
@@ -4679,12 +4450,8 @@
       <c r="X37">
         <v>0</v>
       </c>
-      <c r="Y37">
-        <f>SUM(X37,W37,V37,U37,R37,P37,N37,L37,I37,G37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>232</v>
       </c>
@@ -4757,12 +4524,8 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38">
-        <f>SUM(X38,W38,V38,U38,R38,P38,N38,L38,I38,G38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
@@ -4835,12 +4598,8 @@
       <c r="X39">
         <v>0</v>
       </c>
-      <c r="Y39">
-        <f>SUM(X39,W39,V39,U39,R39,P39,N39,L39,I39,G39)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>232</v>
       </c>
@@ -4913,12 +4672,8 @@
       <c r="X40">
         <v>0</v>
       </c>
-      <c r="Y40">
-        <f>SUM(X40,W40,V40,U40,R40,P40,N40,L40,I40,G40)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>232</v>
       </c>
@@ -4991,12 +4746,8 @@
       <c r="X41">
         <v>0</v>
       </c>
-      <c r="Y41">
-        <f>SUM(X41,W41,V41,U41,R41,P41,N41,L41,I41,G41)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>232</v>
       </c>
@@ -5069,12 +4820,8 @@
       <c r="X42">
         <v>0</v>
       </c>
-      <c r="Y42">
-        <f>SUM(X42,W42,V42,U42,R42,P42,N42,L42,I42,G42)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>232</v>
       </c>
@@ -5147,12 +4894,8 @@
       <c r="X43">
         <v>0</v>
       </c>
-      <c r="Y43">
-        <f>SUM(X43,W43,V43,U43,R43,P43,N43,L43,I43,G43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -5225,12 +4968,8 @@
       <c r="X44">
         <v>40</v>
       </c>
-      <c r="Y44">
-        <f>SUM(X44,W44,V44,U44,R44,P44,N44,L44,I44,G44)</f>
-        <v>633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5303,12 +5042,8 @@
       <c r="X45">
         <v>30</v>
       </c>
-      <c r="Y45">
-        <f>SUM(X45,W45,V45,U45,R45,P45,N45,L45,I45,G45)</f>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -5381,12 +5116,8 @@
       <c r="X46">
         <v>40</v>
       </c>
-      <c r="Y46">
-        <f>SUM(X46,W46,V46,U46,R46,P46,N46,L46,I46,G46)</f>
-        <v>607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -5459,12 +5190,8 @@
       <c r="X47">
         <v>30</v>
       </c>
-      <c r="Y47">
-        <f>SUM(X47,W47,V47,U47,R47,P47,N47,L47,I47,G47)</f>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
@@ -5537,12 +5264,8 @@
       <c r="X48">
         <v>15</v>
       </c>
-      <c r="Y48">
-        <f>SUM(X48,W48,V48,U48,R48,P48,N48,L48,I48,G48)</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>24</v>
       </c>
@@ -5615,12 +5338,8 @@
       <c r="X49">
         <v>15</v>
       </c>
-      <c r="Y49">
-        <f>SUM(X49,W49,V49,U49,R49,P49,N49,L49,I49,G49)</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
@@ -5693,12 +5412,8 @@
       <c r="X50">
         <v>15</v>
       </c>
-      <c r="Y50">
-        <f>SUM(X50,W50,V50,U50,R50,P50,N50,L50,I50,G50)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>24</v>
       </c>
@@ -5771,12 +5486,8 @@
       <c r="X51">
         <v>10</v>
       </c>
-      <c r="Y51">
-        <f>SUM(X51,W51,V51,U51,R51,P51,N51,L51,I51,G51)</f>
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>24</v>
       </c>
@@ -5849,12 +5560,8 @@
       <c r="X52">
         <v>20</v>
       </c>
-      <c r="Y52">
-        <f>SUM(X52,W52,V52,U52,R52,P52,N52,L52,I52,G52)</f>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -5927,12 +5634,8 @@
       <c r="X53">
         <v>30</v>
       </c>
-      <c r="Y53">
-        <f>SUM(X53,W53,V53,U53,R53,P53,N53,L53,I53,G53)</f>
-        <v>523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -6005,12 +5708,8 @@
       <c r="X54">
         <v>25</v>
       </c>
-      <c r="Y54">
-        <f>SUM(X54,W54,V54,U54,R54,P54,N54,L54,I54,G54)</f>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -6083,12 +5782,8 @@
       <c r="X55">
         <v>15</v>
       </c>
-      <c r="Y55">
-        <f>SUM(X55,W55,V55,U55,R55,P55,N55,L55,I55,G55)</f>
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -6161,12 +5856,8 @@
       <c r="X56">
         <v>15</v>
       </c>
-      <c r="Y56">
-        <f>SUM(X56,W56,V56,U56,R56,P56,N56,L56,I56,G56)</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -6239,12 +5930,8 @@
       <c r="X57">
         <v>25</v>
       </c>
-      <c r="Y57">
-        <f>SUM(X57,W57,V57,U57,R57,P57,N57,L57,I57,G57)</f>
-        <v>496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -6317,12 +6004,8 @@
       <c r="X58">
         <v>15</v>
       </c>
-      <c r="Y58">
-        <f>SUM(X58,W58,V58,U58,R58,P58,N58,L58,I58,G58)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
@@ -6395,12 +6078,8 @@
       <c r="X59">
         <v>10</v>
       </c>
-      <c r="Y59">
-        <f>SUM(X59,W59,V59,U59,R59,P59,N59,L59,I59,G59)</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
@@ -6473,12 +6152,8 @@
       <c r="X60">
         <v>15</v>
       </c>
-      <c r="Y60">
-        <f>SUM(X60,W60,V60,U60,R60,P60,N60,L60,I60,G60)</f>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -6551,12 +6226,8 @@
       <c r="X61">
         <v>15</v>
       </c>
-      <c r="Y61">
-        <f>SUM(X61,W61,V61,U61,R61,P61,N61,L61,I61,G61)</f>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
@@ -6629,12 +6300,8 @@
       <c r="X62">
         <v>10</v>
       </c>
-      <c r="Y62">
-        <f>SUM(X62,W62,V62,U62,R62,P62,N62,L62,I62,G62)</f>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>24</v>
       </c>
@@ -6707,12 +6374,8 @@
       <c r="X63">
         <v>10</v>
       </c>
-      <c r="Y63">
-        <f>SUM(X63,W63,V63,U63,R63,P63,N63,L63,I63,G63)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
@@ -6785,12 +6448,8 @@
       <c r="X64">
         <v>15</v>
       </c>
-      <c r="Y64">
-        <f>SUM(X64,W64,V64,U64,R64,P64,N64,L64,I64,G64)</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>24</v>
       </c>
@@ -6863,12 +6522,8 @@
       <c r="X65">
         <v>10</v>
       </c>
-      <c r="Y65">
-        <f>SUM(X65,W65,V65,U65,R65,P65,N65,L65,I65,G65)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>24</v>
       </c>
@@ -6941,12 +6596,8 @@
       <c r="X66">
         <v>20</v>
       </c>
-      <c r="Y66">
-        <f>SUM(X66,W66,V66,U66,R66,P66,N66,L66,I66,G66)</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -7019,12 +6670,8 @@
       <c r="X67">
         <v>20</v>
       </c>
-      <c r="Y67">
-        <f>SUM(X67,W67,V67,U67,R67,P67,N67,L67,I67,G67)</f>
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -7097,12 +6744,8 @@
       <c r="X68">
         <v>15</v>
       </c>
-      <c r="Y68">
-        <f>SUM(X68,W68,V68,U68,R68,P68,N68,L68,I68,G68)</f>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>24</v>
       </c>
@@ -7175,12 +6818,8 @@
       <c r="X69">
         <v>15</v>
       </c>
-      <c r="Y69">
-        <f>SUM(X69,W69,V69,U69,R69,P69,N69,L69,I69,G69)</f>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
@@ -7253,12 +6892,8 @@
       <c r="X70">
         <v>15</v>
       </c>
-      <c r="Y70">
-        <f>SUM(X70,W70,V70,U70,R70,P70,N70,L70,I70,G70)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -7331,12 +6966,8 @@
       <c r="X71">
         <v>15</v>
       </c>
-      <c r="Y71">
-        <f>SUM(X71,W71,V71,U71,R71,P71,N71,L71,I71,G71)</f>
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -7409,12 +7040,8 @@
       <c r="X72">
         <v>25</v>
       </c>
-      <c r="Y72">
-        <f>SUM(X72,W72,V72,U72,R72,P72,N72,L72,I72,G72)</f>
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -7487,12 +7114,8 @@
       <c r="X73">
         <v>15</v>
       </c>
-      <c r="Y73">
-        <f>SUM(X73,W73,V73,U73,R73,P73,N73,L73,I73,G73)</f>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>24</v>
       </c>
@@ -7565,12 +7188,8 @@
       <c r="X74">
         <v>20</v>
       </c>
-      <c r="Y74">
-        <f>SUM(X74,W74,V74,U74,R74,P74,N74,L74,I74,G74)</f>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>24</v>
       </c>
@@ -7643,12 +7262,8 @@
       <c r="X75">
         <v>10</v>
       </c>
-      <c r="Y75">
-        <f>SUM(X75,W75,V75,U75,R75,P75,N75,L75,I75,G75)</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
@@ -7721,12 +7336,8 @@
       <c r="X76">
         <v>15</v>
       </c>
-      <c r="Y76">
-        <f>SUM(X76,W76,V76,U76,R76,P76,N76,L76,I76,G76)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -7799,12 +7410,8 @@
       <c r="X77">
         <v>15</v>
       </c>
-      <c r="Y77">
-        <f>SUM(X77,W77,V77,U77,R77,P77,N77,L77,I77,G77)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>24</v>
       </c>
@@ -7877,12 +7484,8 @@
       <c r="X78">
         <v>20</v>
       </c>
-      <c r="Y78">
-        <f>SUM(X78,W78,V78,U78,R78,P78,N78,L78,I78,G78)</f>
-        <v>317</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>24</v>
       </c>
@@ -7955,12 +7558,8 @@
       <c r="X79">
         <v>15</v>
       </c>
-      <c r="Y79">
-        <f>SUM(X79,W79,V79,U79,R79,P79,N79,L79,I79,G79)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>24</v>
       </c>
@@ -8033,12 +7632,8 @@
       <c r="X80">
         <v>15</v>
       </c>
-      <c r="Y80">
-        <f>SUM(X80,W80,V80,U80,R80,P80,N80,L80,I80,G80)</f>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>24</v>
       </c>
@@ -8111,12 +7706,8 @@
       <c r="X81">
         <v>10</v>
       </c>
-      <c r="Y81">
-        <f>SUM(X81,W81,V81,U81,R81,P81,N81,L81,I81,G81)</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
@@ -8189,12 +7780,8 @@
       <c r="X82">
         <v>8</v>
       </c>
-      <c r="Y82">
-        <f>SUM(X82,W82,V82,U82,R82,P82,N82,L82,I82,G82)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
@@ -8267,12 +7854,8 @@
       <c r="X83">
         <v>10</v>
       </c>
-      <c r="Y83">
-        <f>SUM(X83,W83,V83,U83,R83,P83,N83,L83,I83,G83)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>24</v>
       </c>
@@ -8345,12 +7928,8 @@
       <c r="X84">
         <v>15</v>
       </c>
-      <c r="Y84">
-        <f>SUM(X84,W84,V84,U84,R84,P84,N84,L84,I84,G84)</f>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
@@ -8423,12 +8002,8 @@
       <c r="X85">
         <v>2</v>
       </c>
-      <c r="Y85">
-        <f>SUM(X85,W85,V85,U85,R85,P85,N85,L85,I85,G85)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>131</v>
       </c>
@@ -8501,12 +8076,8 @@
       <c r="X86">
         <v>25</v>
       </c>
-      <c r="Y86">
-        <f>SUM(X86,W86,V86,U86,R86,P86,N86,L86,I86,G86)</f>
-        <v>633</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>131</v>
       </c>
@@ -8579,12 +8150,8 @@
       <c r="X87">
         <v>20</v>
       </c>
-      <c r="Y87">
-        <f>SUM(X87,W87,V87,U87,R87,P87,N87,L87,I87,G87)</f>
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>131</v>
       </c>
@@ -8657,12 +8224,8 @@
       <c r="X88">
         <v>15</v>
       </c>
-      <c r="Y88">
-        <f>SUM(X88,W88,V88,U88,R88,P88,N88,L88,I88,G88)</f>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>131</v>
       </c>
@@ -8735,12 +8298,8 @@
       <c r="X89">
         <v>20</v>
       </c>
-      <c r="Y89">
-        <f>SUM(X89,W89,V89,U89,R89,P89,N89,L89,I89,G89)</f>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>131</v>
       </c>
@@ -8813,12 +8372,8 @@
       <c r="X90">
         <v>10</v>
       </c>
-      <c r="Y90">
-        <f>SUM(X90,W90,V90,U90,R90,P90,N90,L90,I90,G90)</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>131</v>
       </c>
@@ -8891,12 +8446,8 @@
       <c r="X91">
         <v>20</v>
       </c>
-      <c r="Y91">
-        <f>SUM(X91,W91,V91,U91,R91,P91,N91,L91,I91,G91)</f>
-        <v>294</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>131</v>
       </c>
@@ -8969,12 +8520,8 @@
       <c r="X92">
         <v>20</v>
       </c>
-      <c r="Y92">
-        <f>SUM(X92,W92,V92,U92,R92,P92,N92,L92,I92,G92)</f>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>131</v>
       </c>
@@ -9047,12 +8594,8 @@
       <c r="X93">
         <v>20</v>
       </c>
-      <c r="Y93">
-        <f>SUM(X93,W93,V93,U93,R93,P93,N93,L93,I93,G93)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>131</v>
       </c>
@@ -9125,12 +8668,8 @@
       <c r="X94">
         <v>20</v>
       </c>
-      <c r="Y94">
-        <f>SUM(X94,W94,V94,U94,R94,P94,N94,L94,I94,G94)</f>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -9203,12 +8742,8 @@
       <c r="X95">
         <v>20</v>
       </c>
-      <c r="Y95">
-        <f>SUM(X95,W95,V95,U95,R95,P95,N95,L95,I95,G95)</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>131</v>
       </c>
@@ -9281,12 +8816,8 @@
       <c r="X96">
         <v>20</v>
       </c>
-      <c r="Y96">
-        <f>SUM(X96,W96,V96,U96,R96,P96,N96,L96,I96,G96)</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>131</v>
       </c>
@@ -9359,12 +8890,8 @@
       <c r="X97">
         <v>15</v>
       </c>
-      <c r="Y97">
-        <f>SUM(X97,W97,V97,U97,R97,P97,N97,L97,I97,G97)</f>
-        <v>298</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>131</v>
       </c>
@@ -9437,12 +8964,8 @@
       <c r="X98">
         <v>20</v>
       </c>
-      <c r="Y98">
-        <f>SUM(X98,W98,V98,U98,R98,P98,N98,L98,I98,G98)</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -9515,12 +9038,8 @@
       <c r="X99">
         <v>20</v>
       </c>
-      <c r="Y99">
-        <f>SUM(X99,W99,V99,U99,R99,P99,N99,L99,I99,G99)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>131</v>
       </c>
@@ -9593,12 +9112,8 @@
       <c r="X100">
         <v>15</v>
       </c>
-      <c r="Y100">
-        <f>SUM(X100,W100,V100,U100,R100,P100,N100,L100,I100,G100)</f>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>131</v>
       </c>
@@ -9671,12 +9186,8 @@
       <c r="X101">
         <v>15</v>
       </c>
-      <c r="Y101">
-        <f>SUM(X101,W101,V101,U101,R101,P101,N101,L101,I101,G101)</f>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>131</v>
       </c>
@@ -9749,12 +9260,8 @@
       <c r="X102">
         <v>20</v>
       </c>
-      <c r="Y102">
-        <f>SUM(X102,W102,V102,U102,R102,P102,N102,L102,I102,G102)</f>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>131</v>
       </c>
@@ -9827,12 +9334,8 @@
       <c r="X103">
         <v>20</v>
       </c>
-      <c r="Y103">
-        <f>SUM(X103,W103,V103,U103,R103,P103,N103,L103,I103,G103)</f>
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>131</v>
       </c>
@@ -9905,12 +9408,8 @@
       <c r="X104">
         <v>20</v>
       </c>
-      <c r="Y104">
-        <f>SUM(X104,W104,V104,U104,R104,P104,N104,L104,I104,G104)</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>131</v>
       </c>
@@ -9983,12 +9482,8 @@
       <c r="X105">
         <v>20</v>
       </c>
-      <c r="Y105">
-        <f>SUM(X105,W105,V105,U105,R105,P105,N105,L105,I105,G105)</f>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>131</v>
       </c>
@@ -10061,12 +9556,8 @@
       <c r="X106">
         <v>15</v>
       </c>
-      <c r="Y106">
-        <f>SUM(X106,W106,V106,U106,R106,P106,N106,L106,I106,G106)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -10139,12 +9630,8 @@
       <c r="X107">
         <v>15</v>
       </c>
-      <c r="Y107">
-        <f>SUM(X107,W107,V107,U107,R107,P107,N107,L107,I107,G107)</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>131</v>
       </c>
@@ -10217,12 +9704,8 @@
       <c r="X108">
         <v>15</v>
       </c>
-      <c r="Y108">
-        <f>SUM(X108,W108,V108,U108,R108,P108,N108,L108,I108,G108)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>131</v>
       </c>
@@ -10295,12 +9778,8 @@
       <c r="X109">
         <v>10</v>
       </c>
-      <c r="Y109">
-        <f>SUM(X109,W109,V109,U109,R109,P109,N109,L109,I109,G109)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>131</v>
       </c>
@@ -10373,12 +9852,8 @@
       <c r="X110">
         <v>6</v>
       </c>
-      <c r="Y110">
-        <f>SUM(X110,W110,V110,U110,R110,P110,N110,L110,I110,G110)</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>131</v>
       </c>
@@ -10451,12 +9926,8 @@
       <c r="X111">
         <v>4</v>
       </c>
-      <c r="Y111">
-        <f>SUM(X111,W111,V111,U111,R111,P111,N111,L111,I111,G111)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>131</v>
       </c>
@@ -10529,12 +10000,8 @@
       <c r="X112">
         <v>2</v>
       </c>
-      <c r="Y112">
-        <f>SUM(X112,W112,V112,U112,R112,P112,N112,L112,I112,G112)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>268</v>
       </c>
@@ -10607,12 +10074,8 @@
       <c r="X113">
         <v>6</v>
       </c>
-      <c r="Y113">
-        <f>SUM(X113,W113,V113,U113,R113,P113,N113,L113,I113,G113)</f>
-        <v>292</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>268</v>
       </c>
@@ -10685,12 +10148,8 @@
       <c r="X114">
         <v>4</v>
       </c>
-      <c r="Y114">
-        <f>SUM(X114,W114,V114,U114,R114,P114,N114,L114,I114,G114)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>268</v>
       </c>
@@ -10763,12 +10222,8 @@
       <c r="X115">
         <v>2</v>
       </c>
-      <c r="Y115">
-        <f>SUM(X115,W115,V115,U115,R115,P115,N115,L115,I115,G115)</f>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>268</v>
       </c>
@@ -10841,12 +10296,8 @@
       <c r="X116">
         <v>4</v>
       </c>
-      <c r="Y116">
-        <f>SUM(X116,W116,V116,U116,R116,P116,N116,L116,I116,G116)</f>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>268</v>
       </c>
@@ -10919,12 +10370,8 @@
       <c r="X117">
         <v>4</v>
       </c>
-      <c r="Y117">
-        <f>SUM(X117,W117,V117,U117,R117,P117,N117,L117,I117,G117)</f>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>268</v>
       </c>
@@ -10997,12 +10444,8 @@
       <c r="X118">
         <v>2</v>
       </c>
-      <c r="Y118">
-        <f>SUM(X118,W118,V118,U118,R118,P118,N118,L118,I118,G118)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>268</v>
       </c>
@@ -11075,12 +10518,8 @@
       <c r="X119">
         <v>4</v>
       </c>
-      <c r="Y119">
-        <f>SUM(X119,W119,V119,U119,R119,P119,N119,L119,I119,G119)</f>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>268</v>
       </c>
@@ -11153,12 +10592,8 @@
       <c r="X120">
         <v>8</v>
       </c>
-      <c r="Y120">
-        <f>SUM(X120,W120,V120,U120,R120,P120,N120,L120,I120,G120)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>268</v>
       </c>
@@ -11231,12 +10666,8 @@
       <c r="X121">
         <v>8</v>
       </c>
-      <c r="Y121">
-        <f>SUM(X121,W121,V121,U121,R121,P121,N121,L121,I121,G121)</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>268</v>
       </c>
@@ -11309,12 +10740,8 @@
       <c r="X122">
         <v>8</v>
       </c>
-      <c r="Y122">
-        <f>SUM(X122,W122,V122,U122,R122,P122,N122,L122,I122,G122)</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>268</v>
       </c>
@@ -11387,12 +10814,8 @@
       <c r="X123">
         <v>8</v>
       </c>
-      <c r="Y123">
-        <f>SUM(X123,W123,V123,U123,R123,P123,N123,L123,I123,G123)</f>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>268</v>
       </c>
@@ -11465,12 +10888,8 @@
       <c r="X124">
         <v>8</v>
       </c>
-      <c r="Y124">
-        <f>SUM(X124,W124,V124,U124,R124,P124,N124,L124,I124,G124)</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>268</v>
       </c>
@@ -11543,12 +10962,8 @@
       <c r="X125">
         <v>8</v>
       </c>
-      <c r="Y125">
-        <f>SUM(X125,W125,V125,U125,R125,P125,N125,L125,I125,G125)</f>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>268</v>
       </c>
@@ -11621,12 +11036,8 @@
       <c r="X126">
         <v>4</v>
       </c>
-      <c r="Y126">
-        <f>SUM(X126,W126,V126,U126,R126,P126,N126,L126,I126,G126)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>268</v>
       </c>
@@ -11699,12 +11110,8 @@
       <c r="X127">
         <v>4</v>
       </c>
-      <c r="Y127">
-        <f>SUM(X127,W127,V127,U127,R127,P127,N127,L127,I127,G127)</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>268</v>
       </c>
@@ -11777,12 +11184,8 @@
       <c r="X128">
         <v>4</v>
       </c>
-      <c r="Y128">
-        <f>SUM(X128,W128,V128,U128,R128,P128,N128,L128,I128,G128)</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>268</v>
       </c>
@@ -11855,12 +11258,8 @@
       <c r="X129">
         <v>4</v>
       </c>
-      <c r="Y129">
-        <f>SUM(X129,W129,V129,U129,R129,P129,N129,L129,I129,G129)</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>268</v>
       </c>
@@ -11933,12 +11332,8 @@
       <c r="X130">
         <v>4</v>
       </c>
-      <c r="Y130">
-        <f>SUM(X130,W130,V130,U130,R130,P130,N130,L130,I130,G130)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>268</v>
       </c>
@@ -12011,12 +11406,8 @@
       <c r="X131">
         <v>2</v>
       </c>
-      <c r="Y131">
-        <f>SUM(X131,W131,V131,U131,R131,P131,N131,L131,I131,G131)</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>268</v>
       </c>
@@ -12089,12 +11480,8 @@
       <c r="X132">
         <v>2</v>
       </c>
-      <c r="Y132">
-        <f>SUM(X132,W132,V132,U132,R132,P132,N132,L132,I132,G132)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>268</v>
       </c>
@@ -12167,12 +11554,8 @@
       <c r="X133">
         <v>2</v>
       </c>
-      <c r="Y133">
-        <f>SUM(X133,W133,V133,U133,R133,P133,N133,L133,I133,G133)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>268</v>
       </c>
@@ -12245,12 +11628,8 @@
       <c r="X134">
         <v>2</v>
       </c>
-      <c r="Y134">
-        <f>SUM(X134,W134,V134,U134,R134,P134,N134,L134,I134,G134)</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -12323,12 +11702,8 @@
       <c r="X135">
         <v>2</v>
       </c>
-      <c r="Y135">
-        <f>SUM(X135,W135,V135,U135,R135,P135,N135,L135,I135,G135)</f>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>268</v>
       </c>
@@ -12401,12 +11776,8 @@
       <c r="X136">
         <v>6</v>
       </c>
-      <c r="Y136">
-        <f>SUM(X136,W136,V136,U136,R136,P136,N136,L136,I136,G136)</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>268</v>
       </c>
@@ -12479,12 +11850,8 @@
       <c r="X137">
         <v>6</v>
       </c>
-      <c r="Y137">
-        <f>SUM(X137,W137,V137,U137,R137,P137,N137,L137,I137,G137)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
@@ -12557,12 +11924,8 @@
       <c r="X138">
         <v>2</v>
       </c>
-      <c r="Y138">
-        <f>SUM(X138,W138,V138,U138,R138,P138,N138,L138,I138,G138)</f>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>268</v>
       </c>
@@ -12635,12 +11998,8 @@
       <c r="X139">
         <v>6</v>
       </c>
-      <c r="Y139">
-        <f>SUM(X139,W139,V139,U139,R139,P139,N139,L139,I139,G139)</f>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>268</v>
       </c>
@@ -12713,12 +12072,8 @@
       <c r="X140">
         <v>6</v>
       </c>
-      <c r="Y140">
-        <f>SUM(X140,W140,V140,U140,R140,P140,N140,L140,I140,G140)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>268</v>
       </c>
@@ -12791,12 +12146,8 @@
       <c r="X141">
         <v>2</v>
       </c>
-      <c r="Y141">
-        <f>SUM(X141,W141,V141,U141,R141,P141,N141,L141,I141,G141)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>268</v>
       </c>
@@ -12869,12 +12220,8 @@
       <c r="X142">
         <v>2</v>
       </c>
-      <c r="Y142">
-        <f>SUM(X142,W142,V142,U142,R142,P142,N142,L142,I142,G142)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>268</v>
       </c>
@@ -12947,12 +12294,8 @@
       <c r="X143">
         <v>2</v>
       </c>
-      <c r="Y143">
-        <f>SUM(X143,W143,V143,U143,R143,P143,N143,L143,I143,G143)</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>268</v>
       </c>
@@ -13025,12 +12368,8 @@
       <c r="X144">
         <v>0</v>
       </c>
-      <c r="Y144">
-        <f>SUM(X144,W144,V144,U144,R144,P144,N144,L144,I144,G144)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>268</v>
       </c>
@@ -13103,12 +12442,8 @@
       <c r="X145">
         <v>0</v>
       </c>
-      <c r="Y145">
-        <f>SUM(X145,W145,V145,U145,R145,P145,N145,L145,I145,G145)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>268</v>
       </c>
@@ -13181,12 +12516,8 @@
       <c r="X146">
         <v>0</v>
       </c>
-      <c r="Y146">
-        <f>SUM(X146,W146,V146,U146,R146,P146,N146,L146,I146,G146)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>268</v>
       </c>
@@ -13259,12 +12590,8 @@
       <c r="X147">
         <v>6</v>
       </c>
-      <c r="Y147">
-        <f>SUM(X147,W147,V147,U147,R147,P147,N147,L147,I147,G147)</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>268</v>
       </c>
@@ -13337,12 +12664,8 @@
       <c r="X148">
         <v>6</v>
       </c>
-      <c r="Y148">
-        <f>SUM(X148,W148,V148,U148,R148,P148,N148,L148,I148,G148)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>268</v>
       </c>
@@ -13415,12 +12738,8 @@
       <c r="X149">
         <v>0</v>
       </c>
-      <c r="Y149">
-        <f>SUM(X149,W149,V149,U149,R149,P149,N149,L149,I149,G149)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>268</v>
       </c>
@@ -13493,12 +12812,8 @@
       <c r="X150">
         <v>0</v>
       </c>
-      <c r="Y150">
-        <f>SUM(X150,W150,V150,U150,R150,P150,N150,L150,I150,G150)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>268</v>
       </c>
@@ -13571,12 +12886,8 @@
       <c r="X151">
         <v>6</v>
       </c>
-      <c r="Y151">
-        <f>SUM(X151,W151,V151,U151,R151,P151,N151,L151,I151,G151)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>268</v>
       </c>
@@ -13649,12 +12960,8 @@
       <c r="X152">
         <v>6</v>
       </c>
-      <c r="Y152">
-        <f>SUM(X152,W152,V152,U152,R152,P152,N152,L152,I152,G152)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>268</v>
       </c>
@@ -13727,12 +13034,8 @@
       <c r="X153">
         <v>6</v>
       </c>
-      <c r="Y153">
-        <f>SUM(X153,W153,V153,U153,R153,P153,N153,L153,I153,G153)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>268</v>
       </c>
@@ -13805,12 +13108,8 @@
       <c r="X154">
         <v>6</v>
       </c>
-      <c r="Y154">
-        <f>SUM(X154,W154,V154,U154,R154,P154,N154,L154,I154,G154)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>268</v>
       </c>
@@ -13883,12 +13182,8 @@
       <c r="X155">
         <v>2</v>
       </c>
-      <c r="Y155">
-        <f>SUM(X155,W155,V155,U155,R155,P155,N155,L155,I155,G155)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>268</v>
       </c>
@@ -13961,12 +13256,8 @@
       <c r="X156">
         <v>2</v>
       </c>
-      <c r="Y156">
-        <f>SUM(X156,W156,V156,U156,R156,P156,N156,L156,I156,G156)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>268</v>
       </c>
@@ -14039,12 +13330,8 @@
       <c r="X157">
         <v>0</v>
       </c>
-      <c r="Y157">
-        <f>SUM(X157,W157,V157,U157,R157,P157,N157,L157,I157,G157)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>268</v>
       </c>
@@ -14117,12 +13404,8 @@
       <c r="X158">
         <v>2</v>
       </c>
-      <c r="Y158">
-        <f>SUM(X158,W158,V158,U158,R158,P158,N158,L158,I158,G158)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>268</v>
       </c>
@@ -14195,12 +13478,8 @@
       <c r="X159">
         <v>2</v>
       </c>
-      <c r="Y159">
-        <f>SUM(X159,W159,V159,U159,R159,P159,N159,L159,I159,G159)</f>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>268</v>
       </c>
@@ -14273,12 +13552,8 @@
       <c r="X160">
         <v>2</v>
       </c>
-      <c r="Y160">
-        <f>SUM(X160,W160,V160,U160,R160,P160,N160,L160,I160,G160)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>268</v>
       </c>
@@ -14351,12 +13626,8 @@
       <c r="X161">
         <v>2</v>
       </c>
-      <c r="Y161">
-        <f>SUM(X161,W161,V161,U161,R161,P161,N161,L161,I161,G161)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>268</v>
       </c>
@@ -14429,12 +13700,8 @@
       <c r="X162">
         <v>0</v>
       </c>
-      <c r="Y162">
-        <f>SUM(X162,W162,V162,U162,R162,P162,N162,L162,I162,G162)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>268</v>
       </c>
@@ -14507,12 +13774,8 @@
       <c r="X163">
         <v>0</v>
       </c>
-      <c r="Y163">
-        <f>SUM(X163,W163,V163,U163,R163,P163,N163,L163,I163,G163)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>268</v>
       </c>
@@ -14585,12 +13848,8 @@
       <c r="X164">
         <v>0</v>
       </c>
-      <c r="Y164">
-        <f>SUM(X164,W164,V164,U164,R164,P164,N164,L164,I164,G164)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>268</v>
       </c>
@@ -14663,12 +13922,8 @@
       <c r="X165">
         <v>4</v>
       </c>
-      <c r="Y165">
-        <f>SUM(X165,W165,V165,U165,R165,P165,N165,L165,I165,G165)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>268</v>
       </c>
@@ -14741,12 +13996,8 @@
       <c r="X166">
         <v>0</v>
       </c>
-      <c r="Y166">
-        <f>SUM(X166,W166,V166,U166,R166,P166,N166,L166,I166,G166)</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>268</v>
       </c>
@@ -14819,12 +14070,8 @@
       <c r="X167">
         <v>4</v>
       </c>
-      <c r="Y167">
-        <f>SUM(X167,W167,V167,U167,R167,P167,N167,L167,I167,G167)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>268</v>
       </c>
@@ -14897,12 +14144,8 @@
       <c r="X168">
         <v>0</v>
       </c>
-      <c r="Y168">
-        <f>SUM(X168,W168,V168,U168,R168,P168,N168,L168,I168,G168)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>268</v>
       </c>
@@ -14975,12 +14218,8 @@
       <c r="X169">
         <v>0</v>
       </c>
-      <c r="Y169">
-        <f>SUM(X169,W169,V169,U169,R169,P169,N169,L169,I169,G169)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>268</v>
       </c>
@@ -15053,12 +14292,8 @@
       <c r="X170">
         <v>0</v>
       </c>
-      <c r="Y170">
-        <f>SUM(X170,W170,V170,U170,R170,P170,N170,L170,I170,G170)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>268</v>
       </c>
@@ -15131,12 +14366,8 @@
       <c r="X171">
         <v>0</v>
       </c>
-      <c r="Y171">
-        <f>SUM(X171,W171,V171,U171,R171,P171,N171,L171,I171,G171)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>268</v>
       </c>
@@ -15209,12 +14440,8 @@
       <c r="X172">
         <v>0</v>
       </c>
-      <c r="Y172">
-        <f>SUM(X172,W172,V172,U172,R172,P172,N172,L172,I172,G172)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>268</v>
       </c>
@@ -15287,12 +14514,8 @@
       <c r="X173">
         <v>2</v>
       </c>
-      <c r="Y173">
-        <f>SUM(X173,W173,V173,U173,R173,P173,N173,L173,I173,G173)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>268</v>
       </c>
@@ -15365,12 +14588,8 @@
       <c r="X174">
         <v>0</v>
       </c>
-      <c r="Y174">
-        <f>SUM(X174,W174,V174,U174,R174,P174,N174,L174,I174,G174)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>268</v>
       </c>
@@ -15443,12 +14662,8 @@
       <c r="X175">
         <v>2</v>
       </c>
-      <c r="Y175">
-        <f>SUM(X175,W175,V175,U175,R175,P175,N175,L175,I175,G175)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>268</v>
       </c>
@@ -15521,12 +14736,8 @@
       <c r="X176">
         <v>2</v>
       </c>
-      <c r="Y176">
-        <f>SUM(X176,W176,V176,U176,R176,P176,N176,L176,I176,G176)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>268</v>
       </c>
@@ -15599,12 +14810,8 @@
       <c r="X177">
         <v>2</v>
       </c>
-      <c r="Y177">
-        <f>SUM(X177,W177,V177,U177,R177,P177,N177,L177,I177,G177)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>268</v>
       </c>
@@ -15677,12 +14884,8 @@
       <c r="X178">
         <v>0</v>
       </c>
-      <c r="Y178">
-        <f>SUM(X178,W178,V178,U178,R178,P178,N178,L178,I178,G178)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>268</v>
       </c>
@@ -15755,12 +14958,8 @@
       <c r="X179">
         <v>0</v>
       </c>
-      <c r="Y179">
-        <f>SUM(X179,W179,V179,U179,R179,P179,N179,L179,I179,G179)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>268</v>
       </c>
@@ -15833,12 +15032,8 @@
       <c r="X180">
         <v>0</v>
       </c>
-      <c r="Y180">
-        <f>SUM(X180,W180,V180,U180,R180,P180,N180,L180,I180,G180)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>268</v>
       </c>
@@ -15911,12 +15106,8 @@
       <c r="X181">
         <v>0</v>
       </c>
-      <c r="Y181">
-        <f>SUM(X181,W181,V181,U181,R181,P181,N181,L181,I181,G181)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>268</v>
       </c>
@@ -15989,12 +15180,8 @@
       <c r="X182">
         <v>0</v>
       </c>
-      <c r="Y182">
-        <f>SUM(X182,W182,V182,U182,R182,P182,N182,L182,I182,G182)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>268</v>
       </c>
@@ -16067,12 +15254,8 @@
       <c r="X183">
         <v>0</v>
       </c>
-      <c r="Y183">
-        <f>SUM(X183,W183,V183,U183,R183,P183,N183,L183,I183,G183)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>268</v>
       </c>
@@ -16145,12 +15328,8 @@
       <c r="X184">
         <v>0</v>
       </c>
-      <c r="Y184">
-        <f>SUM(X184,W184,V184,U184,R184,P184,N184,L184,I184,G184)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>268</v>
       </c>
@@ -16223,12 +15402,8 @@
       <c r="X185">
         <v>0</v>
       </c>
-      <c r="Y185">
-        <f>SUM(X185,W185,V185,U185,R185,P185,N185,L185,I185,G185)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>268</v>
       </c>
@@ -16301,12 +15476,8 @@
       <c r="X186">
         <v>2</v>
       </c>
-      <c r="Y186">
-        <f>SUM(X186,W186,V186,U186,R186,P186,N186,L186,I186,G186)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>268</v>
       </c>
@@ -16379,12 +15550,8 @@
       <c r="X187">
         <v>2</v>
       </c>
-      <c r="Y187">
-        <f>SUM(X187,W187,V187,U187,R187,P187,N187,L187,I187,G187)</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>268</v>
       </c>
@@ -16457,12 +15624,8 @@
       <c r="X188">
         <v>0</v>
       </c>
-      <c r="Y188">
-        <f>SUM(X188,W188,V188,U188,R188,P188,N188,L188,I188,G188)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>268</v>
       </c>
@@ -16535,12 +15698,8 @@
       <c r="X189">
         <v>0</v>
       </c>
-      <c r="Y189">
-        <f>SUM(X189,W189,V189,U189,R189,P189,N189,L189,I189,G189)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>268</v>
       </c>
@@ -16613,12 +15772,8 @@
       <c r="X190">
         <v>0</v>
       </c>
-      <c r="Y190">
-        <f>SUM(X190,W190,V190,U190,R190,P190,N190,L190,I190,G190)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>268</v>
       </c>
@@ -16691,12 +15846,8 @@
       <c r="X191">
         <v>0</v>
       </c>
-      <c r="Y191">
-        <f>SUM(X191,W191,V191,U191,R191,P191,N191,L191,I191,G191)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>268</v>
       </c>
@@ -16769,12 +15920,8 @@
       <c r="X192">
         <v>0</v>
       </c>
-      <c r="Y192">
-        <f>SUM(X192,W192,V192,U192,R192,P192,N192,L192,I192,G192)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>268</v>
       </c>
@@ -16847,12 +15994,8 @@
       <c r="X193">
         <v>0</v>
       </c>
-      <c r="Y193">
-        <f>SUM(X193,W193,V193,U193,R193,P193,N193,L193,I193,G193)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>268</v>
       </c>
@@ -16925,12 +16068,8 @@
       <c r="X194">
         <v>0</v>
       </c>
-      <c r="Y194">
-        <f>SUM(X194,W194,V194,U194,R194,P194,N194,L194,I194,G194)</f>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>268</v>
       </c>
@@ -17003,12 +16142,8 @@
       <c r="X195">
         <v>0</v>
       </c>
-      <c r="Y195">
-        <f>SUM(X195,W195,V195,U195,R195,P195,N195,L195,I195,G195)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>268</v>
       </c>
@@ -17081,12 +16216,8 @@
       <c r="X196">
         <v>0</v>
       </c>
-      <c r="Y196">
-        <f>SUM(X196,W196,V196,U196,R196,P196,N196,L196,I196,G196)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>268</v>
       </c>
@@ -17159,12 +16290,8 @@
       <c r="X197">
         <v>0</v>
       </c>
-      <c r="Y197">
-        <f>SUM(X197,W197,V197,U197,R197,P197,N197,L197,I197,G197)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>268</v>
       </c>
@@ -17237,12 +16364,8 @@
       <c r="X198">
         <v>0</v>
       </c>
-      <c r="Y198">
-        <f>SUM(X198,W198,V198,U198,R198,P198,N198,L198,I198,G198)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>268</v>
       </c>
@@ -17315,12 +16438,8 @@
       <c r="X199">
         <v>0</v>
       </c>
-      <c r="Y199">
-        <f>SUM(X199,W199,V199,U199,R199,P199,N199,L199,I199,G199)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>268</v>
       </c>
@@ -17393,12 +16512,8 @@
       <c r="X200">
         <v>0</v>
       </c>
-      <c r="Y200">
-        <f>SUM(X200,W200,V200,U200,R200,P200,N200,L200,I200,G200)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>268</v>
       </c>
@@ -17471,12 +16586,8 @@
       <c r="X201">
         <v>0</v>
       </c>
-      <c r="Y201">
-        <f>SUM(X201,W201,V201,U201,R201,P201,N201,L201,I201,G201)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>268</v>
       </c>
@@ -17549,12 +16660,8 @@
       <c r="X202">
         <v>0</v>
       </c>
-      <c r="Y202">
-        <f>SUM(X202,W202,V202,U202,R202,P202,N202,L202,I202,G202)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>268</v>
       </c>
@@ -17627,12 +16734,8 @@
       <c r="X203">
         <v>0</v>
       </c>
-      <c r="Y203">
-        <f>SUM(X203,W203,V203,U203,R203,P203,N203,L203,I203,G203)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>268</v>
       </c>
@@ -17705,12 +16808,8 @@
       <c r="X204">
         <v>0</v>
       </c>
-      <c r="Y204">
-        <f>SUM(X204,W204,V204,U204,R204,P204,N204,L204,I204,G204)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>268</v>
       </c>
@@ -17783,12 +16882,8 @@
       <c r="X205">
         <v>0</v>
       </c>
-      <c r="Y205">
-        <f>SUM(X205,W205,V205,U205,R205,P205,N205,L205,I205,G205)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>268</v>
       </c>
@@ -17861,12 +16956,8 @@
       <c r="X206">
         <v>0</v>
       </c>
-      <c r="Y206">
-        <f>SUM(X206,W206,V206,U206,R206,P206,N206,L206,I206,G206)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>268</v>
       </c>
@@ -17939,12 +17030,8 @@
       <c r="X207">
         <v>0</v>
       </c>
-      <c r="Y207">
-        <f>SUM(X207,W207,V207,U207,R207,P207,N207,L207,I207,G207)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>219</v>
       </c>
@@ -18017,12 +17104,8 @@
       <c r="X208">
         <v>0</v>
       </c>
-      <c r="Y208">
-        <f>SUM(X208,W208,V208,U208,R208,P208,N208,L208,I208,G208)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>219</v>
       </c>
@@ -18095,12 +17178,8 @@
       <c r="X209">
         <v>8</v>
       </c>
-      <c r="Y209">
-        <f>SUM(X209,W209,V209,U209,R209,P209,N209,L209,I209,G209)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>219</v>
       </c>
@@ -18173,12 +17252,8 @@
       <c r="X210">
         <v>0</v>
       </c>
-      <c r="Y210">
-        <f>SUM(X210,W210,V210,U210,R210,P210,N210,L210,I210,G210)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>219</v>
       </c>
@@ -18251,12 +17326,8 @@
       <c r="X211">
         <v>6</v>
       </c>
-      <c r="Y211">
-        <f>SUM(X211,W211,V211,U211,R211,P211,N211,L211,I211,G211)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>219</v>
       </c>
@@ -18329,12 +17400,8 @@
       <c r="X212">
         <v>6</v>
       </c>
-      <c r="Y212">
-        <f>SUM(X212,W212,V212,U212,R212,P212,N212,L212,I212,G212)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>219</v>
       </c>
@@ -18407,12 +17474,8 @@
       <c r="X213">
         <v>8</v>
       </c>
-      <c r="Y213">
-        <f>SUM(X213,W213,V213,U213,R213,P213,N213,L213,I213,G213)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>219</v>
       </c>
@@ -18485,12 +17548,8 @@
       <c r="X214">
         <v>0</v>
       </c>
-      <c r="Y214">
-        <f>SUM(X214,W214,V214,U214,R214,P214,N214,L214,I214,G214)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>183</v>
       </c>
@@ -18563,12 +17622,8 @@
       <c r="X215">
         <v>15</v>
       </c>
-      <c r="Y215">
-        <f>SUM(X215,W215,V215,U215,R215,P215,N215,L215,I215,G215)</f>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>183</v>
       </c>
@@ -18641,12 +17696,8 @@
       <c r="X216">
         <v>15</v>
       </c>
-      <c r="Y216">
-        <f>SUM(X216,W216,V216,U216,R216,P216,N216,L216,I216,G216)</f>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>183</v>
       </c>
@@ -18719,12 +17770,8 @@
       <c r="X217">
         <v>8</v>
       </c>
-      <c r="Y217">
-        <f>SUM(X217,W217,V217,U217,R217,P217,N217,L217,I217,G217)</f>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>183</v>
       </c>
@@ -18797,12 +17844,8 @@
       <c r="X218">
         <v>10</v>
       </c>
-      <c r="Y218">
-        <f>SUM(X218,W218,V218,U218,R218,P218,N218,L218,I218,G218)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>183</v>
       </c>
@@ -18875,12 +17918,8 @@
       <c r="X219">
         <v>6</v>
       </c>
-      <c r="Y219">
-        <f>SUM(X219,W219,V219,U219,R219,P219,N219,L219,I219,G219)</f>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>183</v>
       </c>
@@ -18953,12 +17992,8 @@
       <c r="X220">
         <v>8</v>
       </c>
-      <c r="Y220">
-        <f>SUM(X220,W220,V220,U220,R220,P220,N220,L220,I220,G220)</f>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>366</v>
       </c>
@@ -19031,12 +18066,8 @@
       <c r="X221">
         <v>15</v>
       </c>
-      <c r="Y221">
-        <f>SUM(X221,W221,V221,U221,R221,P221,N221,L221,I221,G221)</f>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>366</v>
       </c>
@@ -19109,12 +18140,8 @@
       <c r="X222">
         <v>0</v>
       </c>
-      <c r="Y222">
-        <f>SUM(X222,W222,V222,U222,R222,P222,N222,L222,I222,G222)</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>366</v>
       </c>
@@ -19187,12 +18214,8 @@
       <c r="X223">
         <v>10</v>
       </c>
-      <c r="Y223">
-        <f>SUM(X223,W223,V223,U223,R223,P223,N223,L223,I223,G223)</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>366</v>
       </c>
@@ -19265,12 +18288,8 @@
       <c r="X224">
         <v>0</v>
       </c>
-      <c r="Y224">
-        <f>SUM(X224,W224,V224,U224,R224,P224,N224,L224,I224,G224)</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>366</v>
       </c>
@@ -19343,12 +18362,8 @@
       <c r="X225">
         <v>0</v>
       </c>
-      <c r="Y225">
-        <f>SUM(X225,W225,V225,U225,R225,P225,N225,L225,I225,G225)</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>366</v>
       </c>
@@ -19421,12 +18436,8 @@
       <c r="X226">
         <v>6</v>
       </c>
-      <c r="Y226">
-        <f>SUM(X226,W226,V226,U226,R226,P226,N226,L226,I226,G226)</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>366</v>
       </c>
@@ -19499,12 +18510,8 @@
       <c r="X227">
         <v>0</v>
       </c>
-      <c r="Y227">
-        <f>SUM(X227,W227,V227,U227,R227,P227,N227,L227,I227,G227)</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>366</v>
       </c>
@@ -19577,12 +18584,8 @@
       <c r="X228">
         <v>10</v>
       </c>
-      <c r="Y228">
-        <f>SUM(X228,W228,V228,U228,R228,P228,N228,L228,I228,G228)</f>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>366</v>
       </c>
@@ -19655,12 +18658,8 @@
       <c r="X229">
         <v>0</v>
       </c>
-      <c r="Y229">
-        <f>SUM(X229,W229,V229,U229,R229,P229,N229,L229,I229,G229)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>366</v>
       </c>
@@ -19733,12 +18732,8 @@
       <c r="X230">
         <v>0</v>
       </c>
-      <c r="Y230">
-        <f>SUM(X230,W230,V230,U230,R230,P230,N230,L230,I230,G230)</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>366</v>
       </c>
@@ -19811,12 +18806,8 @@
       <c r="X231">
         <v>10</v>
       </c>
-      <c r="Y231">
-        <f>SUM(X231,W231,V231,U231,R231,P231,N231,L231,I231,G231)</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>366</v>
       </c>
@@ -19889,12 +18880,8 @@
       <c r="X232">
         <v>8</v>
       </c>
-      <c r="Y232">
-        <f>SUM(X232,W232,V232,U232,R232,P232,N232,L232,I232,G232)</f>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>366</v>
       </c>
@@ -19967,12 +18954,8 @@
       <c r="X233">
         <v>8</v>
       </c>
-      <c r="Y233">
-        <f>SUM(X233,W233,V233,U233,R233,P233,N233,L233,I233,G233)</f>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>366</v>
       </c>
@@ -20045,12 +19028,8 @@
       <c r="X234">
         <v>0</v>
       </c>
-      <c r="Y234">
-        <f>SUM(X234,W234,V234,U234,R234,P234,N234,L234,I234,G234)</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>366</v>
       </c>
@@ -20123,12 +19102,8 @@
       <c r="X235">
         <v>0</v>
       </c>
-      <c r="Y235">
-        <f>SUM(X235,W235,V235,U235,R235,P235,N235,L235,I235,G235)</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>366</v>
       </c>
@@ -20201,12 +19176,8 @@
       <c r="X236">
         <v>8</v>
       </c>
-      <c r="Y236">
-        <f>SUM(X236,W236,V236,U236,R236,P236,N236,L236,I236,G236)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>366</v>
       </c>
@@ -20279,12 +19250,8 @@
       <c r="X237">
         <v>2</v>
       </c>
-      <c r="Y237">
-        <f>SUM(X237,W237,V237,U237,R237,P237,N237,L237,I237,G237)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>366</v>
       </c>
@@ -20357,12 +19324,8 @@
       <c r="X238">
         <v>2</v>
       </c>
-      <c r="Y238">
-        <f>SUM(X238,W238,V238,U238,R238,P238,N238,L238,I238,G238)</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>366</v>
       </c>
@@ -20435,12 +19398,8 @@
       <c r="X239">
         <v>4</v>
       </c>
-      <c r="Y239">
-        <f>SUM(X239,W239,V239,U239,R239,P239,N239,L239,I239,G239)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>366</v>
       </c>
@@ -20513,12 +19472,8 @@
       <c r="X240">
         <v>4</v>
       </c>
-      <c r="Y240">
-        <f>SUM(X240,W240,V240,U240,R240,P240,N240,L240,I240,G240)</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>366</v>
       </c>
@@ -20591,12 +19546,8 @@
       <c r="X241">
         <v>2</v>
       </c>
-      <c r="Y241">
-        <f>SUM(X241,W241,V241,U241,R241,P241,N241,L241,I241,G241)</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>366</v>
       </c>
@@ -20669,12 +19620,8 @@
       <c r="X242">
         <v>2</v>
       </c>
-      <c r="Y242">
-        <f>SUM(X242,W242,V242,U242,R242,P242,N242,L242,I242,G242)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>366</v>
       </c>
@@ -20747,12 +19694,8 @@
       <c r="X243">
         <v>4</v>
       </c>
-      <c r="Y243">
-        <f>SUM(X243,W243,V243,U243,R243,P243,N243,L243,I243,G243)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>366</v>
       </c>
@@ -20825,12 +19768,8 @@
       <c r="X244">
         <v>4</v>
       </c>
-      <c r="Y244">
-        <f>SUM(X244,W244,V244,U244,R244,P244,N244,L244,I244,G244)</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>366</v>
       </c>
@@ -20903,12 +19842,8 @@
       <c r="X245">
         <v>6</v>
       </c>
-      <c r="Y245">
-        <f>SUM(X245,W245,V245,U245,R245,P245,N245,L245,I245,G245)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>366</v>
       </c>
@@ -20981,12 +19916,8 @@
       <c r="X246">
         <v>2</v>
       </c>
-      <c r="Y246">
-        <f>SUM(X246,W246,V246,U246,R246,P246,N246,L246,I246,G246)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>366</v>
       </c>
@@ -21059,12 +19990,8 @@
       <c r="X247">
         <v>2</v>
       </c>
-      <c r="Y247">
-        <f>SUM(X247,W247,V247,U247,R247,P247,N247,L247,I247,G247)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>366</v>
       </c>
@@ -21137,12 +20064,8 @@
       <c r="X248">
         <v>2</v>
       </c>
-      <c r="Y248">
-        <f>SUM(X248,W248,V248,U248,R248,P248,N248,L248,I248,G248)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>194</v>
       </c>
@@ -21215,12 +20138,8 @@
       <c r="X249">
         <v>8</v>
       </c>
-      <c r="Y249">
-        <f>SUM(X249,W249,V249,U249,R249,P249,N249,L249,I249,G249)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>194</v>
       </c>
@@ -21293,12 +20212,8 @@
       <c r="X250">
         <v>4</v>
       </c>
-      <c r="Y250">
-        <f>SUM(X250,W250,V250,U250,R250,P250,N250,L250,I250,G250)</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>194</v>
       </c>
@@ -21371,12 +20286,8 @@
       <c r="X251">
         <v>10</v>
       </c>
-      <c r="Y251">
-        <f>SUM(X251,W251,V251,U251,R251,P251,N251,L251,I251,G251)</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>194</v>
       </c>
@@ -21449,12 +20360,8 @@
       <c r="X252">
         <v>10</v>
       </c>
-      <c r="Y252">
-        <f>SUM(X252,W252,V252,U252,R252,P252,N252,L252,I252,G252)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>194</v>
       </c>
@@ -21527,12 +20434,8 @@
       <c r="X253">
         <v>10</v>
       </c>
-      <c r="Y253">
-        <f>SUM(X253,W253,V253,U253,R253,P253,N253,L253,I253,G253)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>194</v>
       </c>
@@ -21605,12 +20508,8 @@
       <c r="X254">
         <v>4</v>
       </c>
-      <c r="Y254">
-        <f>SUM(X254,W254,V254,U254,R254,P254,N254,L254,I254,G254)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>194</v>
       </c>
@@ -21683,12 +20582,8 @@
       <c r="X255">
         <v>10</v>
       </c>
-      <c r="Y255">
-        <f>SUM(X255,W255,V255,U255,R255,P255,N255,L255,I255,G255)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>194</v>
       </c>
@@ -21761,12 +20656,8 @@
       <c r="X256">
         <v>4</v>
       </c>
-      <c r="Y256">
-        <f>SUM(X256,W256,V256,U256,R256,P256,N256,L256,I256,G256)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>194</v>
       </c>
@@ -21839,12 +20730,8 @@
       <c r="X257">
         <v>10</v>
       </c>
-      <c r="Y257">
-        <f>SUM(X257,W257,V257,U257,R257,P257,N257,L257,I257,G257)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>194</v>
       </c>
@@ -21917,12 +20804,8 @@
       <c r="X258">
         <v>10</v>
       </c>
-      <c r="Y258">
-        <f>SUM(X258,W258,V258,U258,R258,P258,N258,L258,I258,G258)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>194</v>
       </c>
@@ -21995,12 +20878,8 @@
       <c r="X259">
         <v>2</v>
       </c>
-      <c r="Y259">
-        <f>SUM(X259,W259,V259,U259,R259,P259,N259,L259,I259,G259)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>194</v>
       </c>
@@ -22073,12 +20952,8 @@
       <c r="X260">
         <v>4</v>
       </c>
-      <c r="Y260">
-        <f>SUM(X260,W260,V260,U260,R260,P260,N260,L260,I260,G260)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>194</v>
       </c>
@@ -22150,10 +21025,6 @@
       </c>
       <c r="X261">
         <v>0</v>
-      </c>
-      <c r="Y261">
-        <f>SUM(X261,W261,V261,U261,R261,P261,N261,L261,I261,G261)</f>
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -22162,952 +21033,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE09BED9-E9B2-4C7E-8033-B40EBF77FAED}">
-  <dimension ref="A1:W23"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" customWidth="1"/>
-    <col min="21" max="21" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="5">
-        <f>AVERAGE(menu!D:D)</f>
-        <v>368.26923076923077</v>
-      </c>
-      <c r="C2" s="5">
-        <f>AVERAGE(menu!E:E)</f>
-        <v>127.09615384615384</v>
-      </c>
-      <c r="D2" s="5">
-        <f>AVERAGE(menu!F:F)</f>
-        <v>16.346153846153847</v>
-      </c>
-      <c r="E2" s="5">
-        <f>AVERAGE(menu!G:G)</f>
-        <v>21.815384615384616</v>
-      </c>
-      <c r="F2" s="5">
-        <f>AVERAGE(menu!H:H)</f>
-        <v>9.6423076923076927</v>
-      </c>
-      <c r="G2" s="5">
-        <f>AVERAGE(menu!I:I)</f>
-        <v>29.965384615384615</v>
-      </c>
-      <c r="H2" s="5">
-        <f>AVERAGE(menu!J:J)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <f>AVERAGE(menu!K:K)</f>
-        <v>54.942307692307693</v>
-      </c>
-      <c r="J2" s="5">
-        <f>AVERAGE(menu!L:L)</f>
-        <v>18.392307692307693</v>
-      </c>
-      <c r="K2" s="5">
-        <f>AVERAGE(menu!M:M)</f>
-        <v>495.75</v>
-      </c>
-      <c r="L2" s="5">
-        <f>AVERAGE(menu!N:N)</f>
-        <v>20.676923076923078</v>
-      </c>
-      <c r="M2" s="5">
-        <f>AVERAGE(menu!O:O)</f>
-        <v>47.346153846153847</v>
-      </c>
-      <c r="N2" s="5">
-        <f>AVERAGE(menu!P:P)</f>
-        <v>15.780769230769231</v>
-      </c>
-      <c r="O2" s="5">
-        <f>AVERAGE(menu!Q:Q)</f>
-        <v>1.6307692307692307</v>
-      </c>
-      <c r="P2" s="5">
-        <f>AVERAGE(menu!R:R)</f>
-        <v>6.5307692307692307</v>
-      </c>
-      <c r="Q2" s="5">
-        <f>AVERAGE(menu!S:S)</f>
-        <v>29.423076923076923</v>
-      </c>
-      <c r="R2" s="5">
-        <f>AVERAGE(menu!T:T)</f>
-        <v>13.338461538461539</v>
-      </c>
-      <c r="S2" s="5">
-        <f>AVERAGE(menu!U:U)</f>
-        <v>13.426923076923076</v>
-      </c>
-      <c r="T2" s="5">
-        <f>AVERAGE(menu!V:V)</f>
-        <v>8.5346153846153854</v>
-      </c>
-      <c r="U2" s="5">
-        <f>AVERAGE(menu!W:W)</f>
-        <v>20.973076923076924</v>
-      </c>
-      <c r="V2" s="5">
-        <f>AVERAGE(menu!X:X)</f>
-        <v>7.7346153846153847</v>
-      </c>
-      <c r="W2" s="5">
-        <f>AVERAGE(menu!Y:Y)</f>
-        <v>163.83076923076922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B3" s="5">
-        <f>_xlfn.STDEV.S(menu!D:D)</f>
-        <v>240.26988649145849</v>
-      </c>
-      <c r="C3" s="5">
-        <f>_xlfn.STDEV.S(menu!E:E)</f>
-        <v>127.87591409643727</v>
-      </c>
-      <c r="D3" s="5">
-        <f>_xlfn.STDEV.S(menu!F:F)</f>
-        <v>14.9308374825362</v>
-      </c>
-      <c r="E3" s="5">
-        <f>_xlfn.STDEV.S(menu!G:G)</f>
-        <v>21.885198755367167</v>
-      </c>
-      <c r="F3" s="5">
-        <f>_xlfn.STDEV.S(menu!H:H)</f>
-        <v>10.836399161047307</v>
-      </c>
-      <c r="G3" s="5">
-        <f>_xlfn.STDEV.S(menu!I:I)</f>
-        <v>26.6392088057706</v>
-      </c>
-      <c r="H3" s="5">
-        <f>_xlfn.STDEV.S(menu!J:J)</f>
-        <v>3.1805392806613968</v>
-      </c>
-      <c r="I3" s="5">
-        <f>_xlfn.STDEV.S(menu!K:K)</f>
-        <v>87.269257471765499</v>
-      </c>
-      <c r="J3" s="5">
-        <f>_xlfn.STDEV.S(menu!L:L)</f>
-        <v>29.09165283933288</v>
-      </c>
-      <c r="K3" s="5">
-        <f>_xlfn.STDEV.S(menu!M:M)</f>
-        <v>577.02632298113349</v>
-      </c>
-      <c r="L3" s="5">
-        <f>_xlfn.STDEV.S(menu!N:N)</f>
-        <v>24.034953756539704</v>
-      </c>
-      <c r="M3" s="5">
-        <f>_xlfn.STDEV.S(menu!O:O)</f>
-        <v>28.252231685100472</v>
-      </c>
-      <c r="N3" s="5">
-        <f>_xlfn.STDEV.S(menu!P:P)</f>
-        <v>9.4195442606218531</v>
-      </c>
-      <c r="O3" s="5">
-        <f>_xlfn.STDEV.S(menu!Q:Q)</f>
-        <v>1.5677170847244275</v>
-      </c>
-      <c r="P3" s="5">
-        <f>_xlfn.STDEV.S(menu!R:R)</f>
-        <v>6.3070573470496027</v>
-      </c>
-      <c r="Q3" s="5">
-        <f>_xlfn.STDEV.S(menu!S:S)</f>
-        <v>28.679796713553245</v>
-      </c>
-      <c r="R3" s="5">
-        <f>_xlfn.STDEV.S(menu!T:T)</f>
-        <v>11.426146163812895</v>
-      </c>
-      <c r="S3" s="5">
-        <f>_xlfn.STDEV.S(menu!U:U)</f>
-        <v>24.366380688779117</v>
-      </c>
-      <c r="T3" s="5">
-        <f>_xlfn.STDEV.S(menu!V:V)</f>
-        <v>26.345542321948891</v>
-      </c>
-      <c r="U3" s="5">
-        <f>_xlfn.STDEV.S(menu!W:W)</f>
-        <v>17.019953261651722</v>
-      </c>
-      <c r="V3" s="5">
-        <f>_xlfn.STDEV.S(menu!X:X)</f>
-        <v>8.7232632796059892</v>
-      </c>
-      <c r="W3" s="5">
-        <f>_xlfn.STDEV.S(menu!Y:Y)</f>
-        <v>115.94494356214908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B4" s="5">
-        <f>MEDIAN(menu!D:D)</f>
-        <v>340</v>
-      </c>
-      <c r="C4" s="5">
-        <f>MEDIAN(menu!E:E)</f>
-        <v>100</v>
-      </c>
-      <c r="D4" s="5">
-        <f>MEDIAN(menu!F:F)</f>
-        <v>14</v>
-      </c>
-      <c r="E4" s="5">
-        <f>MEDIAN(menu!G:G)</f>
-        <v>17</v>
-      </c>
-      <c r="F4" s="5">
-        <f>MEDIAN(menu!H:H)</f>
-        <v>7</v>
-      </c>
-      <c r="G4" s="5">
-        <f>MEDIAN(menu!I:I)</f>
-        <v>24</v>
-      </c>
-      <c r="H4" s="5">
-        <f>MEDIAN(menu!J:J)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <f>MEDIAN(menu!K:K)</f>
-        <v>35</v>
-      </c>
-      <c r="J4" s="5">
-        <f>MEDIAN(menu!L:L)</f>
-        <v>11</v>
-      </c>
-      <c r="K4" s="5">
-        <f>MEDIAN(menu!M:M)</f>
-        <v>190</v>
-      </c>
-      <c r="L4" s="5">
-        <f>MEDIAN(menu!N:N)</f>
-        <v>8</v>
-      </c>
-      <c r="M4" s="5">
-        <f>MEDIAN(menu!O:O)</f>
-        <v>44</v>
-      </c>
-      <c r="N4" s="5">
-        <f>MEDIAN(menu!P:P)</f>
-        <v>15</v>
-      </c>
-      <c r="O4" s="5">
-        <f>MEDIAN(menu!Q:Q)</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="5">
-        <f>MEDIAN(menu!R:R)</f>
-        <v>5</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>MEDIAN(menu!S:S)</f>
-        <v>17.5</v>
-      </c>
-      <c r="R4" s="5">
-        <f>MEDIAN(menu!T:T)</f>
-        <v>12</v>
-      </c>
-      <c r="S4" s="5">
-        <f>MEDIAN(menu!U:U)</f>
-        <v>8</v>
-      </c>
-      <c r="T4" s="5">
-        <f>MEDIAN(menu!V:V)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
-        <f>MEDIAN(menu!W:W)</f>
-        <v>20</v>
-      </c>
-      <c r="V4" s="5">
-        <f>MEDIAN(menu!X:X)</f>
-        <v>4</v>
-      </c>
-      <c r="W4" s="5">
-        <f>MEDIAN(menu!Y:Y)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!D:D,3)-_xlfn.QUARTILE.INC(menu!D:D,1)</f>
-        <v>290</v>
-      </c>
-      <c r="C5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!E:E,3)-_xlfn.QUARTILE.INC(menu!E:E,1)</f>
-        <v>180</v>
-      </c>
-      <c r="D5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!F:F,3)-_xlfn.QUARTILE.INC(menu!F:F,1)</f>
-        <v>19</v>
-      </c>
-      <c r="E5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!G:G,3)-_xlfn.QUARTILE.INC(menu!G:G,1)</f>
-        <v>31.25</v>
-      </c>
-      <c r="F5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!H:H,3)-_xlfn.QUARTILE.INC(menu!H:H,1)</f>
-        <v>11</v>
-      </c>
-      <c r="G5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!I:I,3)-_xlfn.QUARTILE.INC(menu!I:I,1)</f>
-        <v>43.25</v>
-      </c>
-      <c r="H5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!J:J,3)-_xlfn.QUARTILE.INC(menu!J:J,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!K:K,3)-_xlfn.QUARTILE.INC(menu!K:K,1)</f>
-        <v>60</v>
-      </c>
-      <c r="J5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!L:L,3)-_xlfn.QUARTILE.INC(menu!L:L,1)</f>
-        <v>19.25</v>
-      </c>
-      <c r="K5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!M:M,3)-_xlfn.QUARTILE.INC(menu!M:M,1)</f>
-        <v>757.5</v>
-      </c>
-      <c r="L5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!N:N,3)-_xlfn.QUARTILE.INC(menu!N:N,1)</f>
-        <v>31.5</v>
-      </c>
-      <c r="M5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!O:O,3)-_xlfn.QUARTILE.INC(menu!O:O,1)</f>
-        <v>30</v>
-      </c>
-      <c r="N5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!P:P,3)-_xlfn.QUARTILE.INC(menu!P:P,1)</f>
-        <v>10</v>
-      </c>
-      <c r="O5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!Q:Q,3)-_xlfn.QUARTILE.INC(menu!Q:Q,1)</f>
-        <v>3</v>
-      </c>
-      <c r="P5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!R:R,3)-_xlfn.QUARTILE.INC(menu!R:R,1)</f>
-        <v>10</v>
-      </c>
-      <c r="Q5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!S:S,3)-_xlfn.QUARTILE.INC(menu!S:S,1)</f>
-        <v>42.25</v>
-      </c>
-      <c r="R5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!T:T,3)-_xlfn.QUARTILE.INC(menu!T:T,1)</f>
-        <v>15</v>
-      </c>
-      <c r="S5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!U:U,3)-_xlfn.QUARTILE.INC(menu!U:U,1)</f>
-        <v>13</v>
-      </c>
-      <c r="T5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!V:V,3)-_xlfn.QUARTILE.INC(menu!V:V,1)</f>
-        <v>4</v>
-      </c>
-      <c r="U5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!W:W,3)-_xlfn.QUARTILE.INC(menu!W:W,1)</f>
-        <v>24</v>
-      </c>
-      <c r="V5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!X:X,3)-_xlfn.QUARTILE.INC(menu!X:X,1)</f>
-        <v>15</v>
-      </c>
-      <c r="W5" s="5">
-        <f>_xlfn.QUARTILE.INC(menu!Y:Y,3)-_xlfn.QUARTILE.INC(menu!Y:Y,1)</f>
-        <v>153.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A898A898-C755-4A4D-BF05-C807C723F72C}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="str" cm="1">
-        <f t="array" ref="A1:E23">TRANSPOSE(Analysis!A1:W5)</f>
-        <v>Calculation/Column</v>
-      </c>
-      <c r="B1" s="6" t="str">
-        <v>Mean</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <v>SD</v>
-      </c>
-      <c r="D1" s="6" t="str">
-        <v>Median</v>
-      </c>
-      <c r="E1" s="6" t="str">
-        <v>IQR</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="str">
-        <v>Calories</v>
-      </c>
-      <c r="B2">
-        <v>368.26923076923077</v>
-      </c>
-      <c r="C2">
-        <v>240.26988649145849</v>
-      </c>
-      <c r="D2">
-        <v>340</v>
-      </c>
-      <c r="E2">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <v>Calories from Fat</v>
-      </c>
-      <c r="B3">
-        <v>127.09615384615384</v>
-      </c>
-      <c r="C3">
-        <v>127.87591409643727</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <v>Total Fat</v>
-      </c>
-      <c r="B4">
-        <v>16.346153846153847</v>
-      </c>
-      <c r="C4">
-        <v>14.9308374825362</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <v>Total Fat (% Daily Value)</v>
-      </c>
-      <c r="B5">
-        <v>21.815384615384616</v>
-      </c>
-      <c r="C5">
-        <v>21.885198755367167</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <v>Saturated Fat</v>
-      </c>
-      <c r="B6">
-        <v>9.6423076923076927</v>
-      </c>
-      <c r="C6">
-        <v>10.836399161047307</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <v>Saturated Fat (% Daily Value)</v>
-      </c>
-      <c r="B7">
-        <v>29.965384615384615</v>
-      </c>
-      <c r="C7">
-        <v>26.6392088057706</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>43.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <v>Trans Fat</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>3.1805392806613968</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <v>Cholesterol</v>
-      </c>
-      <c r="B9">
-        <v>54.942307692307693</v>
-      </c>
-      <c r="C9">
-        <v>87.269257471765499</v>
-      </c>
-      <c r="D9">
-        <v>35</v>
-      </c>
-      <c r="E9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
-        <v>Cholesterol (% Daily Value)</v>
-      </c>
-      <c r="B10">
-        <v>18.392307692307693</v>
-      </c>
-      <c r="C10">
-        <v>29.09165283933288</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>19.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <v>Sodium</v>
-      </c>
-      <c r="B11">
-        <v>495.75</v>
-      </c>
-      <c r="C11">
-        <v>577.02632298113349</v>
-      </c>
-      <c r="D11">
-        <v>190</v>
-      </c>
-      <c r="E11">
-        <v>757.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <v>Sodium (% Daily Value)</v>
-      </c>
-      <c r="B12">
-        <v>20.676923076923078</v>
-      </c>
-      <c r="C12">
-        <v>24.034953756539704</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <v>Carbohydrates</v>
-      </c>
-      <c r="B13">
-        <v>47.346153846153847</v>
-      </c>
-      <c r="C13">
-        <v>28.252231685100472</v>
-      </c>
-      <c r="D13">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <v>Carbohydrates (% Daily Value)</v>
-      </c>
-      <c r="B14">
-        <v>15.780769230769231</v>
-      </c>
-      <c r="C14">
-        <v>9.4195442606218531</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
-        <v>Dietary Fiber</v>
-      </c>
-      <c r="B15">
-        <v>1.6307692307692307</v>
-      </c>
-      <c r="C15">
-        <v>1.5677170847244275</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
-        <v>Dietary Fiber (% Daily Value)</v>
-      </c>
-      <c r="B16">
-        <v>6.5307692307692307</v>
-      </c>
-      <c r="C16">
-        <v>6.3070573470496027</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
-        <v>Sugars</v>
-      </c>
-      <c r="B17">
-        <v>29.423076923076923</v>
-      </c>
-      <c r="C17">
-        <v>28.679796713553245</v>
-      </c>
-      <c r="D17">
-        <v>17.5</v>
-      </c>
-      <c r="E17">
-        <v>42.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <v>Protein</v>
-      </c>
-      <c r="B18">
-        <v>13.338461538461539</v>
-      </c>
-      <c r="C18">
-        <v>11.426146163812895</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <v>Vitamin A (% Daily Value)</v>
-      </c>
-      <c r="B19">
-        <v>13.426923076923076</v>
-      </c>
-      <c r="C19">
-        <v>24.366380688779117</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <v>Vitamin C (% Daily Value)</v>
-      </c>
-      <c r="B20">
-        <v>8.5346153846153854</v>
-      </c>
-      <c r="C20">
-        <v>26.345542321948891</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="str">
-        <v>Calcium (% Daily Value)</v>
-      </c>
-      <c r="B21">
-        <v>20.973076923076924</v>
-      </c>
-      <c r="C21">
-        <v>17.019953261651722</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="str">
-        <v>Iron (% Daily Value)</v>
-      </c>
-      <c r="B22">
-        <v>7.7346153846153847</v>
-      </c>
-      <c r="C22">
-        <v>8.7232632796059892</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="str">
-        <v>Total Percentage</v>
-      </c>
-      <c r="B23">
-        <v>163.83076923076922</v>
-      </c>
-      <c r="C23">
-        <v>115.94494356214908</v>
-      </c>
-      <c r="D23">
-        <v>145</v>
-      </c>
-      <c r="E23">
-        <v>153.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
